--- a/task_group5.xlsx
+++ b/task_group5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iuhedu-my.sharepoint.com/personal/21133631_tuan_student_iuh_edu_vn/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CybersoftCode\Exercise\Masterwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{5269EED9-283B-44C8-8916-88B5DFF953D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03439BF6-808E-4569-8239-7A1ADA46207E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCF123B-74B3-4DE2-8791-B4EC92FE0974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{D1F08C22-7467-42CE-AF08-1B05B2077206}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>IDEAS</t>
   </si>
   <si>
-    <t>CHOOSE US</t>
-  </si>
-  <si>
     <t>ABOUT OUR</t>
   </si>
   <si>
@@ -105,6 +102,18 @@
   </si>
   <si>
     <t>14/6/2024</t>
+  </si>
+  <si>
+    <t>22/6/2024</t>
+  </si>
+  <si>
+    <t>23/6/2024</t>
+  </si>
+  <si>
+    <t>Phần navbar-toggle không đóng lại được, do lỗi jquery mã băm</t>
+  </si>
+  <si>
+    <t>Lỗi khi làm mới lại trang khi không ở Project One, khi click Project Two và làm mới lại trang thì xuất hiện lỗi xuất hiện cả nội dung của  Project One và Project Two</t>
   </si>
 </sst>
 </file>
@@ -158,60 +167,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,19 +257,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EACB439E-B824-4DC1-A2CF-E39B00A876B6}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:J11" xr:uid="{EACB439E-B824-4DC1-A2CF-E39B00A876B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EACB439E-B824-4DC1-A2CF-E39B00A876B6}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:J10" xr:uid="{EACB439E-B824-4DC1-A2CF-E39B00A876B6}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{69CB3878-CF7E-44AD-8E44-AAA548668EF8}" name="Tasks Name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{33624030-B39C-4DDB-BAE3-B62BA46CE5BE}" name="Start Build" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CD00F28E-359F-4594-A46B-40BCC2C5D58A}" name="Finish Build" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{225EA278-78BA-4080-BEFC-CCE1FC926EAD}" name="% Build" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A9471285-8792-49D2-92FA-B5D77CEF926E}" name="Names" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{386350B6-0145-4250-9F57-11AD46088826}" name="Start Testing" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{22A086AD-F272-433A-8AEF-0C5F526334B6}" name="Finish Testing" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{DAC54C1D-3287-4DAC-9B4A-E468977A41A9}" name="% Testing" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{43C5FBA2-C17F-4741-AEEE-A6DDF8BE7156}" name="Names Testting" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{EE6C2112-1AE2-48E9-8283-3D7EDB98E49F}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{69CB3878-CF7E-44AD-8E44-AAA548668EF8}" name="Tasks Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{33624030-B39C-4DDB-BAE3-B62BA46CE5BE}" name="Start Build" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CD00F28E-359F-4594-A46B-40BCC2C5D58A}" name="Finish Build" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{225EA278-78BA-4080-BEFC-CCE1FC926EAD}" name="% Build" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A9471285-8792-49D2-92FA-B5D77CEF926E}" name="Names" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{386350B6-0145-4250-9F57-11AD46088826}" name="Start Testing" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{22A086AD-F272-433A-8AEF-0C5F526334B6}" name="Finish Testing" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{DAC54C1D-3287-4DAC-9B4A-E468977A41A9}" name="% Testing" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{43C5FBA2-C17F-4741-AEEE-A6DDF8BE7156}" name="Names Testting" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{EE6C2112-1AE2-48E9-8283-3D7EDB98E49F}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -562,256 +592,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99C3737-1D46-48F4-9359-2A9E64AF468D}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="4"/>
+    <col min="2" max="2" width="19.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="54" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="27.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+    <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3"/>
+      <c r="J3" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+    <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3"/>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+    <row r="7" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J9" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="3"/>
+      <c r="J10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
